--- a/popMart.xlsx
+++ b/popMart.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
